--- a/individual_case_outputs/avey/20.xlsx
+++ b/individual_case_outputs/avey/20.xlsx
@@ -730,7 +730,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>diabetes mellitus</t>
+          <t>diabetic foot</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -809,7 +809,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>diabetes mellitus</t>
+          <t>metabolic syndrome</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
